--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STLIE\OneDrive\Studie\Master Forensic Science\Literature Thesis\CllrLiteratureThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2716,7 +2716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3088,32 +3088,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
-    <col min="4" max="4" width="73.125" customWidth="1"/>
-    <col min="5" max="5" width="36.625" customWidth="1"/>
-    <col min="6" max="7" width="26.125" customWidth="1"/>
-    <col min="8" max="8" width="44.875" customWidth="1"/>
-    <col min="9" max="11" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" customWidth="1"/>
+    <col min="3" max="3" width="39.59765625" customWidth="1"/>
+    <col min="4" max="4" width="73.09765625" customWidth="1"/>
+    <col min="5" max="5" width="36.59765625" customWidth="1"/>
+    <col min="6" max="7" width="26.09765625" customWidth="1"/>
+    <col min="8" max="8" width="44.8984375" customWidth="1"/>
+    <col min="9" max="11" width="26.09765625" customWidth="1"/>
     <col min="12" max="14" width="34" customWidth="1"/>
     <col min="15" max="15" width="72" customWidth="1"/>
-    <col min="16" max="16" width="119.375" customWidth="1"/>
-    <col min="17" max="17" width="105.625" customWidth="1"/>
+    <col min="16" max="16" width="119.3984375" customWidth="1"/>
+    <col min="17" max="17" width="105.59765625" customWidth="1"/>
     <col min="18" max="19" width="28" customWidth="1"/>
-    <col min="20" max="20" width="45.375" customWidth="1"/>
-    <col min="21" max="21" width="59.125" customWidth="1"/>
+    <col min="20" max="20" width="45.3984375" customWidth="1"/>
+    <col min="21" max="21" width="59.09765625" customWidth="1"/>
     <col min="22" max="22" width="118" customWidth="1"/>
     <col min="23" max="23" width="138.5" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2007</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2011</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2014</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2014</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2015</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2015</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2015</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>577</v>
       </c>
       <c r="G55" t="s">
-        <v>132</v>
+        <v>562</v>
       </c>
       <c r="H55" t="s">
         <v>562</v>
@@ -6064,7 +6064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2016</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2016</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2016</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2016</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2016</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2016</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2016</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2016</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>663</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>562</v>
       </c>
       <c r="H66" t="s">
         <v>562</v>
@@ -6709,7 +6709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2017</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2017</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2011</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2017</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2017</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2017</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2017</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2017</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2017</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2017</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2017</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2018</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2018</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2018</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2018</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2018</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2018</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2018</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2018</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2019</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2019</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2019</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2019</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2019</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2019</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2019</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2019</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2019</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2019</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2019</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2019</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2019</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2019</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2019</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2019</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2019</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2019</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2020</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2020</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2020</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2020</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2020</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2020</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2020</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2020</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2020</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2020</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2020</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2020</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2020</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2020</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2021</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2022</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2022</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2022</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2022</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2022</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2022</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2022</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2022</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2022</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2022</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2022</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2022</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2022</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2022</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2022</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2022</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2022</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2022</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2022</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2022</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2022</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2022</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2022</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2022</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2022</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2022</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2022</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2022</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2022</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -12345,9 +12345,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>708</v>
       </c>
